--- a/out/CE/FigA_12.xlsx
+++ b/out/CE/FigA_12.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C80811B-F31C-4127-97F6-613E9FEFA18C}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.87326000000000004</v>
+      </c>
+      <c r="B1">
+        <v>0.88078000000000001</v>
+      </c>
+      <c r="C1">
+        <v>0.86362000000000005</v>
+      </c>
+      <c r="D1">
+        <v>0.86987000000000003</v>
+      </c>
+      <c r="E1">
+        <v>0.86246999999999996</v>
+      </c>
+      <c r="F1">
+        <v>0.88210999999999995</v>
+      </c>
+      <c r="G1">
+        <v>0.85397000000000001</v>
+      </c>
+      <c r="H1">
+        <v>0.84953000000000001</v>
+      </c>
+      <c r="I1">
+        <v>0.84996000000000005</v>
+      </c>
+      <c r="J1">
+        <v>0.85607</v>
+      </c>
+      <c r="K1">
+        <v>0.86473</v>
+      </c>
+      <c r="L1">
+        <v>0.85692999999999997</v>
+      </c>
+      <c r="M1">
+        <v>0.84919</v>
+      </c>
+      <c r="N1">
+        <v>0.84941999999999995</v>
+      </c>
+      <c r="O1">
+        <v>0.87161</v>
+      </c>
+      <c r="P1">
+        <v>0.87446000000000002</v>
+      </c>
+      <c r="Q1">
+        <v>0.85540000000000005</v>
+      </c>
+      <c r="R1">
+        <v>0.86346000000000001</v>
+      </c>
+      <c r="S1">
+        <v>0.87246999999999997</v>
+      </c>
+      <c r="T1">
+        <v>0.85065000000000002</v>
+      </c>
+      <c r="U1">
+        <v>0.84757000000000005</v>
+      </c>
+      <c r="V1">
+        <v>0.88171999999999995</v>
+      </c>
+      <c r="W1">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="X1">
+        <v>0.86792000000000002</v>
+      </c>
+      <c r="Y1">
+        <v>0.85326000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.87065999999999999</v>
+      </c>
+      <c r="AA1">
+        <v>0.86938000000000004</v>
+      </c>
+      <c r="AB1">
+        <v>0.87385000000000002</v>
+      </c>
+      <c r="AC1">
+        <v>0.83821999999999997</v>
+      </c>
+      <c r="AD1">
+        <v>0.83245000000000002</v>
+      </c>
+      <c r="AE1">
+        <v>0.84941999999999995</v>
+      </c>
+      <c r="AF1">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="AG1">
+        <v>0.82991999999999999</v>
+      </c>
+      <c r="AH1">
+        <v>0.86048000000000002</v>
+      </c>
+      <c r="AI1">
+        <v>0.85585999999999995</v>
+      </c>
+      <c r="AJ1">
+        <v>0.83913000000000004</v>
+      </c>
+      <c r="AK1">
+        <v>0.88476999999999995</v>
+      </c>
+      <c r="AL1">
+        <v>0.84794000000000003</v>
+      </c>
+      <c r="AM1">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="AN1">
+        <v>0.86721000000000004</v>
+      </c>
+      <c r="AO1">
+        <v>0.85177999999999998</v>
+      </c>
+      <c r="AP1">
+        <v>0.88702999999999999</v>
+      </c>
+      <c r="AQ1">
+        <v>0.86046</v>
+      </c>
+      <c r="AR1">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="AS1">
+        <v>0.85663999999999996</v>
+      </c>
+      <c r="AT1">
+        <v>0.85311999999999999</v>
+      </c>
+      <c r="AU1">
+        <v>0.85357000000000005</v>
+      </c>
+      <c r="AV1">
+        <v>0.86268999999999996</v>
+      </c>
+      <c r="AW1">
+        <v>0.85536000000000001</v>
+      </c>
+      <c r="AX1">
+        <v>0.87131000000000003</v>
+      </c>
+      <c r="AY1">
+        <v>0.83416000000000001</v>
+      </c>
+      <c r="AZ1">
+        <v>0.87126999999999999</v>
+      </c>
+      <c r="BA1">
+        <v>0.80993999999999999</v>
+      </c>
+      <c r="BB1">
+        <v>0.86700999999999995</v>
+      </c>
+      <c r="BC1">
+        <v>0.85294999999999999</v>
+      </c>
+      <c r="BD1">
+        <v>0.87488999999999995</v>
+      </c>
+      <c r="BE1">
+        <v>0.86646999999999996</v>
+      </c>
+      <c r="BF1">
+        <v>0.86761999999999995</v>
+      </c>
+      <c r="BG1">
+        <v>0.86861999999999995</v>
+      </c>
+      <c r="BH1">
+        <v>0.88216000000000006</v>
+      </c>
+      <c r="BI1">
+        <v>0.84855999999999998</v>
+      </c>
+      <c r="BJ1">
+        <v>0.84628000000000003</v>
+      </c>
+      <c r="BK1">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="BL1">
+        <v>0.85921999999999998</v>
+      </c>
+      <c r="BM1">
+        <v>0.84606000000000003</v>
+      </c>
+      <c r="BN1">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="BO1">
+        <v>0.85265999999999997</v>
+      </c>
+      <c r="BP1">
+        <v>0.84870999999999996</v>
+      </c>
+      <c r="BQ1">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="BR1">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="BS1">
+        <v>0.86348999999999998</v>
+      </c>
+      <c r="BT1">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="BU1">
+        <v>0.83477000000000001</v>
+      </c>
+      <c r="BV1">
+        <v>0.83811000000000002</v>
+      </c>
+      <c r="BW1">
+        <v>0.86624000000000001</v>
+      </c>
+      <c r="BX1">
+        <v>0.86956999999999995</v>
+      </c>
+      <c r="BY1">
+        <v>0.87450000000000006</v>
+      </c>
+      <c r="BZ1">
+        <v>0.88453999999999999</v>
+      </c>
+      <c r="CA1">
+        <v>0.86719000000000002</v>
+      </c>
+      <c r="CB1">
+        <v>0.84806000000000004</v>
+      </c>
+      <c r="CC1">
+        <v>0.87141999999999997</v>
+      </c>
+      <c r="CD1">
+        <v>0.86951999999999996</v>
+      </c>
+      <c r="CE1">
+        <v>0.84650999999999998</v>
+      </c>
+      <c r="CF1">
+        <v>0.83464000000000005</v>
+      </c>
+      <c r="CG1">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="CH1">
+        <v>0.89171</v>
+      </c>
+      <c r="CI1">
+        <v>0.86014000000000002</v>
+      </c>
+      <c r="CJ1">
+        <v>0.86051999999999995</v>
+      </c>
+      <c r="CK1">
+        <v>0.88119000000000003</v>
+      </c>
+      <c r="CL1">
+        <v>0.85211999999999999</v>
+      </c>
+      <c r="CM1">
+        <v>0.86338000000000004</v>
+      </c>
+      <c r="CN1">
+        <v>0.83772999999999997</v>
+      </c>
+      <c r="CO1">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="CP1">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="CQ1">
+        <v>0.86245000000000005</v>
+      </c>
+      <c r="CR1">
+        <v>0.85248000000000002</v>
+      </c>
+      <c r="CS1">
+        <v>0.85560999999999998</v>
+      </c>
+      <c r="CT1">
+        <v>0.86158999999999997</v>
+      </c>
+      <c r="CU1">
+        <v>0.84018999999999999</v>
+      </c>
+      <c r="CV1">
+        <v>0.87404999999999999</v>
+      </c>
+      <c r="CW1">
+        <v>0.85926879999999983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0.86873</v>
       </c>
-      <c r="B1">
-        <v>0.84287000000000001</v>
-      </c>
-      <c r="C1">
-        <v>0.85580000000000001</v>
+      <c r="B2">
+        <v>0.87095999999999996</v>
+      </c>
+      <c r="C2">
+        <v>0.87992000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.85699000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.84994999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.87621000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.85804000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.85711999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.84170999999999996</v>
+      </c>
+      <c r="J2">
+        <v>0.83664000000000005</v>
+      </c>
+      <c r="K2">
+        <v>0.86521000000000003</v>
+      </c>
+      <c r="L2">
+        <v>0.87980999999999998</v>
+      </c>
+      <c r="M2">
+        <v>0.86055999999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.87583999999999995</v>
+      </c>
+      <c r="O2">
+        <v>0.88173999999999997</v>
+      </c>
+      <c r="P2">
+        <v>0.85990999999999995</v>
+      </c>
+      <c r="Q2">
+        <v>0.85887999999999998</v>
+      </c>
+      <c r="R2">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="S2">
+        <v>0.87783</v>
+      </c>
+      <c r="T2">
+        <v>0.86006000000000005</v>
+      </c>
+      <c r="U2">
+        <v>0.86470999999999998</v>
+      </c>
+      <c r="V2">
+        <v>0.86185</v>
+      </c>
+      <c r="W2">
+        <v>0.85202</v>
+      </c>
+      <c r="X2">
+        <v>0.84367000000000003</v>
+      </c>
+      <c r="Y2">
+        <v>0.85628000000000004</v>
+      </c>
+      <c r="Z2">
+        <v>0.84596000000000005</v>
+      </c>
+      <c r="AA2">
+        <v>0.88539000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>0.83196000000000003</v>
+      </c>
+      <c r="AC2">
+        <v>0.86656</v>
+      </c>
+      <c r="AD2">
+        <v>0.83808000000000005</v>
+      </c>
+      <c r="AE2">
+        <v>0.83904999999999996</v>
+      </c>
+      <c r="AF2">
+        <v>0.85797000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="AH2">
+        <v>0.86597000000000002</v>
+      </c>
+      <c r="AI2">
+        <v>0.82120000000000004</v>
+      </c>
+      <c r="AJ2">
+        <v>0.87787999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.83991000000000005</v>
+      </c>
+      <c r="AL2">
+        <v>0.87002999999999997</v>
+      </c>
+      <c r="AM2">
+        <v>0.88453000000000004</v>
+      </c>
+      <c r="AN2">
+        <v>0.86</v>
+      </c>
+      <c r="AO2">
+        <v>0.85033999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>0.84555000000000002</v>
+      </c>
+      <c r="AQ2">
+        <v>0.86026999999999998</v>
+      </c>
+      <c r="AR2">
+        <v>0.84543999999999997</v>
+      </c>
+      <c r="AS2">
+        <v>0.86600999999999995</v>
+      </c>
+      <c r="AT2">
+        <v>0.87497999999999998</v>
+      </c>
+      <c r="AU2">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.86360999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0.87305999999999995</v>
+      </c>
+      <c r="AX2">
+        <v>0.83345999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>0.86475999999999997</v>
+      </c>
+      <c r="AZ2">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="BA2">
+        <v>0.86814999999999998</v>
+      </c>
+      <c r="BB2">
+        <v>0.86673999999999995</v>
+      </c>
+      <c r="BC2">
+        <v>0.87619000000000002</v>
+      </c>
+      <c r="BD2">
+        <v>0.85336000000000001</v>
+      </c>
+      <c r="BE2">
+        <v>0.83206999999999998</v>
+      </c>
+      <c r="BF2">
+        <v>0.87512999999999996</v>
+      </c>
+      <c r="BG2">
+        <v>0.87902999999999998</v>
+      </c>
+      <c r="BH2">
+        <v>0.85772999999999999</v>
+      </c>
+      <c r="BI2">
+        <v>0.86341999999999997</v>
+      </c>
+      <c r="BJ2">
+        <v>0.86462000000000006</v>
+      </c>
+      <c r="BK2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.87787000000000004</v>
+      </c>
+      <c r="BM2">
+        <v>0.87555000000000005</v>
+      </c>
+      <c r="BN2">
+        <v>0.87321000000000004</v>
+      </c>
+      <c r="BO2">
+        <v>0.84521000000000002</v>
+      </c>
+      <c r="BP2">
+        <v>0.88195000000000001</v>
+      </c>
+      <c r="BQ2">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="BR2">
+        <v>0.85509000000000002</v>
+      </c>
+      <c r="BS2">
+        <v>0.85879000000000005</v>
+      </c>
+      <c r="BT2">
+        <v>0.86123000000000005</v>
+      </c>
+      <c r="BU2">
+        <v>0.87526000000000004</v>
+      </c>
+      <c r="BV2">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="BW2">
+        <v>0.84270999999999996</v>
+      </c>
+      <c r="BX2">
+        <v>0.84663999999999995</v>
+      </c>
+      <c r="BY2">
+        <v>0.85626000000000002</v>
+      </c>
+      <c r="BZ2">
+        <v>0.84331</v>
+      </c>
+      <c r="CA2">
+        <v>0.84348000000000001</v>
+      </c>
+      <c r="CB2">
+        <v>0.84535000000000005</v>
+      </c>
+      <c r="CC2">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="CD2">
+        <v>0.86389000000000005</v>
+      </c>
+      <c r="CE2">
+        <v>0.86499000000000004</v>
+      </c>
+      <c r="CF2">
+        <v>0.8498</v>
+      </c>
+      <c r="CG2">
+        <v>0.86914000000000002</v>
+      </c>
+      <c r="CH2">
+        <v>0.87</v>
+      </c>
+      <c r="CI2">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="CJ2">
+        <v>0.86573999999999995</v>
+      </c>
+      <c r="CK2">
+        <v>0.86407</v>
+      </c>
+      <c r="CL2">
+        <v>0.87275999999999998</v>
+      </c>
+      <c r="CM2">
+        <v>0.85782000000000003</v>
+      </c>
+      <c r="CN2">
+        <v>0.86348000000000003</v>
+      </c>
+      <c r="CO2">
+        <v>0.84097</v>
+      </c>
+      <c r="CP2">
+        <v>0.87392000000000003</v>
+      </c>
+      <c r="CQ2">
+        <v>0.87778999999999996</v>
+      </c>
+      <c r="CR2">
+        <v>0.84736999999999996</v>
+      </c>
+      <c r="CS2">
+        <v>0.85514000000000001</v>
+      </c>
+      <c r="CT2">
+        <v>0.84562999999999999</v>
+      </c>
+      <c r="CU2">
+        <v>0.84919</v>
+      </c>
+      <c r="CV2">
+        <v>0.89148000000000005</v>
+      </c>
+      <c r="CW2">
+        <v>0.86089940000000031</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.87356</v>
-      </c>
-      <c r="B2">
-        <v>0.87000999999999995</v>
-      </c>
-      <c r="C2">
-        <v>0.87178500000000003</v>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.87653000000000003</v>
+      </c>
+      <c r="B3">
+        <v>0.87466999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.87292000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.87129000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.84658999999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.86463999999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.84301999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.86992000000000003</v>
+      </c>
+      <c r="K3">
+        <v>0.88134000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.85404000000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.86319000000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.86228000000000005</v>
+      </c>
+      <c r="O3">
+        <v>0.86943000000000004</v>
+      </c>
+      <c r="P3">
+        <v>0.85411000000000004</v>
+      </c>
+      <c r="Q3">
+        <v>0.87702000000000002</v>
+      </c>
+      <c r="R3">
+        <v>0.84919</v>
+      </c>
+      <c r="S3">
+        <v>0.85084000000000004</v>
+      </c>
+      <c r="T3">
+        <v>0.85070999999999997</v>
+      </c>
+      <c r="U3">
+        <v>0.83352999999999999</v>
+      </c>
+      <c r="V3">
+        <v>0.85558000000000001</v>
+      </c>
+      <c r="W3">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="X3">
+        <v>0.86716000000000004</v>
+      </c>
+      <c r="Y3">
+        <v>0.86175000000000002</v>
+      </c>
+      <c r="Z3">
+        <v>0.88646000000000003</v>
+      </c>
+      <c r="AA3">
+        <v>0.85792999999999997</v>
+      </c>
+      <c r="AB3">
+        <v>0.86829000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.87780999999999998</v>
+      </c>
+      <c r="AD3">
+        <v>0.85763999999999996</v>
+      </c>
+      <c r="AE3">
+        <v>0.87844999999999995</v>
+      </c>
+      <c r="AF3">
+        <v>0.86592000000000002</v>
+      </c>
+      <c r="AG3">
+        <v>0.87641999999999998</v>
+      </c>
+      <c r="AH3">
+        <v>0.86858999999999997</v>
+      </c>
+      <c r="AI3">
+        <v>0.86958000000000002</v>
+      </c>
+      <c r="AJ3">
+        <v>0.82411999999999996</v>
+      </c>
+      <c r="AK3">
+        <v>0.87941999999999998</v>
+      </c>
+      <c r="AL3">
+        <v>0.85551999999999995</v>
+      </c>
+      <c r="AM3">
+        <v>0.87778</v>
+      </c>
+      <c r="AN3">
+        <v>0.85904999999999998</v>
+      </c>
+      <c r="AO3">
+        <v>0.84994999999999998</v>
+      </c>
+      <c r="AP3">
+        <v>0.88621000000000005</v>
+      </c>
+      <c r="AQ3">
+        <v>0.86324000000000001</v>
+      </c>
+      <c r="AR3">
+        <v>0.85690999999999995</v>
+      </c>
+      <c r="AS3">
+        <v>0.84531000000000001</v>
+      </c>
+      <c r="AT3">
+        <v>0.86007</v>
+      </c>
+      <c r="AU3">
+        <v>0.87317999999999996</v>
+      </c>
+      <c r="AV3">
+        <v>0.87705999999999995</v>
+      </c>
+      <c r="AW3">
+        <v>0.83091999999999999</v>
+      </c>
+      <c r="AX3">
+        <v>0.85948000000000002</v>
+      </c>
+      <c r="AY3">
+        <v>0.85826000000000002</v>
+      </c>
+      <c r="AZ3">
+        <v>0.88663000000000003</v>
+      </c>
+      <c r="BA3">
+        <v>0.85106999999999999</v>
+      </c>
+      <c r="BB3">
+        <v>0.86587000000000003</v>
+      </c>
+      <c r="BC3">
+        <v>0.86068</v>
+      </c>
+      <c r="BD3">
+        <v>0.85475000000000001</v>
+      </c>
+      <c r="BE3">
+        <v>0.84855999999999998</v>
+      </c>
+      <c r="BF3">
+        <v>0.86226999999999998</v>
+      </c>
+      <c r="BG3">
+        <v>0.84414999999999996</v>
+      </c>
+      <c r="BH3">
+        <v>0.86868000000000001</v>
+      </c>
+      <c r="BI3">
+        <v>0.85690999999999995</v>
+      </c>
+      <c r="BJ3">
+        <v>0.84975000000000001</v>
+      </c>
+      <c r="BK3">
+        <v>0.85697999999999996</v>
+      </c>
+      <c r="BL3">
+        <v>0.84363999999999995</v>
+      </c>
+      <c r="BM3">
+        <v>0.84377999999999997</v>
+      </c>
+      <c r="BN3">
+        <v>0.83835000000000004</v>
+      </c>
+      <c r="BO3">
+        <v>0.87714000000000003</v>
+      </c>
+      <c r="BP3">
+        <v>0.88493999999999995</v>
+      </c>
+      <c r="BQ3">
+        <v>0.87217999999999996</v>
+      </c>
+      <c r="BR3">
+        <v>0.86402000000000001</v>
+      </c>
+      <c r="BS3">
+        <v>0.83216999999999997</v>
+      </c>
+      <c r="BT3">
+        <v>0.87766999999999995</v>
+      </c>
+      <c r="BU3">
+        <v>0.85511999999999999</v>
+      </c>
+      <c r="BV3">
+        <v>0.86336000000000002</v>
+      </c>
+      <c r="BW3">
+        <v>0.86955000000000005</v>
+      </c>
+      <c r="BX3">
+        <v>0.85357000000000005</v>
+      </c>
+      <c r="BY3">
+        <v>0.85104000000000002</v>
+      </c>
+      <c r="BZ3">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="CA3">
+        <v>0.86133999999999999</v>
+      </c>
+      <c r="CB3">
+        <v>0.86468</v>
+      </c>
+      <c r="CC3">
+        <v>0.84745999999999999</v>
+      </c>
+      <c r="CD3">
+        <v>0.86626000000000003</v>
+      </c>
+      <c r="CE3">
+        <v>0.85507999999999995</v>
+      </c>
+      <c r="CF3">
+        <v>0.88036000000000003</v>
+      </c>
+      <c r="CG3">
+        <v>0.84685999999999995</v>
+      </c>
+      <c r="CH3">
+        <v>0.85941999999999996</v>
+      </c>
+      <c r="CI3">
+        <v>0.86343999999999999</v>
+      </c>
+      <c r="CJ3">
+        <v>0.85426000000000002</v>
+      </c>
+      <c r="CK3">
+        <v>0.86441999999999997</v>
+      </c>
+      <c r="CL3">
+        <v>0.83531</v>
+      </c>
+      <c r="CM3">
+        <v>0.85657000000000005</v>
+      </c>
+      <c r="CN3">
+        <v>0.87094000000000005</v>
+      </c>
+      <c r="CO3">
+        <v>0.86041999999999996</v>
+      </c>
+      <c r="CP3">
+        <v>0.85895999999999995</v>
+      </c>
+      <c r="CQ3">
+        <v>0.86185999999999996</v>
+      </c>
+      <c r="CR3">
+        <v>0.88275000000000003</v>
+      </c>
+      <c r="CS3">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="CT3">
+        <v>0.83335000000000004</v>
+      </c>
+      <c r="CU3">
+        <v>0.84001000000000003</v>
+      </c>
+      <c r="CV3">
+        <v>0.86362000000000005</v>
+      </c>
+      <c r="CW3">
+        <v>0.86085569999999989</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.85541999999999996</v>
-      </c>
-      <c r="B3">
-        <v>0.86755000000000004</v>
-      </c>
-      <c r="C3">
-        <v>0.86148500000000006</v>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.88931000000000004</v>
+      </c>
+      <c r="B4">
+        <v>0.88158999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.86599000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.86778</v>
+      </c>
+      <c r="E4">
+        <v>0.86058999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.86490999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.85289000000000004</v>
+      </c>
+      <c r="H4">
+        <v>0.84791000000000005</v>
+      </c>
+      <c r="I4">
+        <v>0.85743000000000003</v>
+      </c>
+      <c r="J4">
+        <v>0.83703000000000005</v>
+      </c>
+      <c r="K4">
+        <v>0.84787000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.86270999999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.85614000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.88317999999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.86302000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.88295999999999997</v>
+      </c>
+      <c r="R4">
+        <v>0.87417</v>
+      </c>
+      <c r="S4">
+        <v>0.86797999999999997</v>
+      </c>
+      <c r="T4">
+        <v>0.87246000000000001</v>
+      </c>
+      <c r="U4">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="V4">
+        <v>0.83957000000000004</v>
+      </c>
+      <c r="W4">
+        <v>0.87973000000000001</v>
+      </c>
+      <c r="X4">
+        <v>0.88053999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="Z4">
+        <v>0.86175000000000002</v>
+      </c>
+      <c r="AA4">
+        <v>0.86287999999999998</v>
+      </c>
+      <c r="AB4">
+        <v>0.85138000000000003</v>
+      </c>
+      <c r="AC4">
+        <v>0.86377000000000004</v>
+      </c>
+      <c r="AD4">
+        <v>0.85292000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>0.87541000000000002</v>
+      </c>
+      <c r="AF4">
+        <v>0.85636000000000001</v>
+      </c>
+      <c r="AG4">
+        <v>0.89065000000000005</v>
+      </c>
+      <c r="AH4">
+        <v>0.86336999999999997</v>
+      </c>
+      <c r="AI4">
+        <v>0.86485999999999996</v>
+      </c>
+      <c r="AJ4">
+        <v>0.85887000000000002</v>
+      </c>
+      <c r="AK4">
+        <v>0.87871999999999995</v>
+      </c>
+      <c r="AL4">
+        <v>0.87453999999999998</v>
+      </c>
+      <c r="AM4">
+        <v>0.87175999999999998</v>
+      </c>
+      <c r="AN4">
+        <v>0.86589000000000005</v>
+      </c>
+      <c r="AO4">
+        <v>0.83904999999999996</v>
+      </c>
+      <c r="AP4">
+        <v>0.86455000000000004</v>
+      </c>
+      <c r="AQ4">
+        <v>0.86038999999999999</v>
+      </c>
+      <c r="AR4">
+        <v>0.89614000000000005</v>
+      </c>
+      <c r="AS4">
+        <v>0.86546999999999996</v>
+      </c>
+      <c r="AT4">
+        <v>0.85341999999999996</v>
+      </c>
+      <c r="AU4">
+        <v>0.84355999999999998</v>
+      </c>
+      <c r="AV4">
+        <v>0.86521999999999999</v>
+      </c>
+      <c r="AW4">
+        <v>0.84486000000000006</v>
+      </c>
+      <c r="AX4">
+        <v>0.83091999999999999</v>
+      </c>
+      <c r="AY4">
+        <v>0.85536999999999996</v>
+      </c>
+      <c r="AZ4">
+        <v>0.87944</v>
+      </c>
+      <c r="BA4">
+        <v>0.86223000000000005</v>
+      </c>
+      <c r="BB4">
+        <v>0.86102000000000001</v>
+      </c>
+      <c r="BC4">
+        <v>0.87602000000000002</v>
+      </c>
+      <c r="BD4">
+        <v>0.84992999999999996</v>
+      </c>
+      <c r="BE4">
+        <v>0.86490999999999996</v>
+      </c>
+      <c r="BF4">
+        <v>0.84143999999999997</v>
+      </c>
+      <c r="BG4">
+        <v>0.89214000000000004</v>
+      </c>
+      <c r="BH4">
+        <v>0.86221000000000003</v>
+      </c>
+      <c r="BI4">
+        <v>0.86104000000000003</v>
+      </c>
+      <c r="BJ4">
+        <v>0.87265000000000004</v>
+      </c>
+      <c r="BK4">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="BL4">
+        <v>0.86295999999999995</v>
+      </c>
+      <c r="BM4">
+        <v>0.83914</v>
+      </c>
+      <c r="BN4">
+        <v>0.84047000000000005</v>
+      </c>
+      <c r="BO4">
+        <v>0.88744000000000001</v>
+      </c>
+      <c r="BP4">
+        <v>0.86756999999999995</v>
+      </c>
+      <c r="BQ4">
+        <v>0.84114</v>
+      </c>
+      <c r="BR4">
+        <v>0.84314</v>
+      </c>
+      <c r="BS4">
+        <v>0.86700999999999995</v>
+      </c>
+      <c r="BT4">
+        <v>0.85443999999999998</v>
+      </c>
+      <c r="BU4">
+        <v>0.88221000000000005</v>
+      </c>
+      <c r="BV4">
+        <v>0.84036999999999995</v>
+      </c>
+      <c r="BW4">
+        <v>0.86868000000000001</v>
+      </c>
+      <c r="BX4">
+        <v>0.86101000000000005</v>
+      </c>
+      <c r="BY4">
+        <v>0.86458000000000002</v>
+      </c>
+      <c r="BZ4">
+        <v>0.88251999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.86438999999999999</v>
+      </c>
+      <c r="CB4">
+        <v>0.83238000000000001</v>
+      </c>
+      <c r="CC4">
+        <v>0.88854</v>
+      </c>
+      <c r="CD4">
+        <v>0.84928999999999999</v>
+      </c>
+      <c r="CE4">
+        <v>0.88597000000000004</v>
+      </c>
+      <c r="CF4">
+        <v>0.85687999999999998</v>
+      </c>
+      <c r="CG4">
+        <v>0.85131999999999997</v>
+      </c>
+      <c r="CH4">
+        <v>0.86556</v>
+      </c>
+      <c r="CI4">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="CJ4">
+        <v>0.85052000000000005</v>
+      </c>
+      <c r="CK4">
+        <v>0.88026000000000004</v>
+      </c>
+      <c r="CL4">
+        <v>0.85946999999999996</v>
+      </c>
+      <c r="CM4">
+        <v>0.88161999999999996</v>
+      </c>
+      <c r="CN4">
+        <v>0.88376999999999994</v>
+      </c>
+      <c r="CO4">
+        <v>0.87221000000000004</v>
+      </c>
+      <c r="CP4">
+        <v>0.86658000000000002</v>
+      </c>
+      <c r="CQ4">
+        <v>0.86001000000000005</v>
+      </c>
+      <c r="CR4">
+        <v>0.88920999999999994</v>
+      </c>
+      <c r="CS4">
+        <v>0.84848000000000001</v>
+      </c>
+      <c r="CT4">
+        <v>0.85009000000000001</v>
+      </c>
+      <c r="CU4">
+        <v>0.86407</v>
+      </c>
+      <c r="CV4">
+        <v>0.84531000000000001</v>
+      </c>
+      <c r="CW4">
+        <v>0.86299830000000011</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.83277999999999996</v>
-      </c>
-      <c r="B4">
-        <v>0.87319999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.85298999999999991</v>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.86292999999999997</v>
+      </c>
+      <c r="B5">
+        <v>0.88097999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.85116999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.83208000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.85634999999999994</v>
+      </c>
+      <c r="G5">
+        <v>0.89373999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.88019000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.89475000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.84962000000000004</v>
+      </c>
+      <c r="K5">
+        <v>0.86175000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.86016000000000004</v>
+      </c>
+      <c r="M5">
+        <v>0.83104</v>
+      </c>
+      <c r="N5">
+        <v>0.86426000000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.84165000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.85121000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>0.86675999999999997</v>
+      </c>
+      <c r="R5">
+        <v>0.87346000000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.87182999999999999</v>
+      </c>
+      <c r="T5">
+        <v>0.87178</v>
+      </c>
+      <c r="U5">
+        <v>0.84970999999999997</v>
+      </c>
+      <c r="V5">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="W5">
+        <v>0.8851</v>
+      </c>
+      <c r="X5">
+        <v>0.85728000000000004</v>
+      </c>
+      <c r="Y5">
+        <v>0.85953999999999997</v>
+      </c>
+      <c r="Z5">
+        <v>0.86663999999999997</v>
+      </c>
+      <c r="AA5">
+        <v>0.86541000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="AC5">
+        <v>0.87668999999999997</v>
+      </c>
+      <c r="AD5">
+        <v>0.86787000000000003</v>
+      </c>
+      <c r="AE5">
+        <v>0.84738000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>0.86470999999999998</v>
+      </c>
+      <c r="AG5">
+        <v>0.84658</v>
+      </c>
+      <c r="AH5">
+        <v>0.86207999999999996</v>
+      </c>
+      <c r="AI5">
+        <v>0.83604000000000001</v>
+      </c>
+      <c r="AJ5">
+        <v>0.85838999999999999</v>
+      </c>
+      <c r="AK5">
+        <v>0.87494000000000005</v>
+      </c>
+      <c r="AL5">
+        <v>0.87104000000000004</v>
+      </c>
+      <c r="AM5">
+        <v>0.85692000000000002</v>
+      </c>
+      <c r="AN5">
+        <v>0.83726</v>
+      </c>
+      <c r="AO5">
+        <v>0.86319000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.86443999999999999</v>
+      </c>
+      <c r="AQ5">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="AR5">
+        <v>0.86106000000000005</v>
+      </c>
+      <c r="AS5">
+        <v>0.86282999999999999</v>
+      </c>
+      <c r="AT5">
+        <v>0.86653999999999998</v>
+      </c>
+      <c r="AU5">
+        <v>0.88815</v>
+      </c>
+      <c r="AV5">
+        <v>0.87622</v>
+      </c>
+      <c r="AW5">
+        <v>0.86555000000000004</v>
+      </c>
+      <c r="AX5">
+        <v>0.85450999999999999</v>
+      </c>
+      <c r="AY5">
+        <v>0.85806000000000004</v>
+      </c>
+      <c r="AZ5">
+        <v>0.87526999999999999</v>
+      </c>
+      <c r="BA5">
+        <v>0.86641999999999997</v>
+      </c>
+      <c r="BB5">
+        <v>0.86043999999999998</v>
+      </c>
+      <c r="BC5">
+        <v>0.83952000000000004</v>
+      </c>
+      <c r="BD5">
+        <v>0.84992000000000001</v>
+      </c>
+      <c r="BE5">
+        <v>0.83665</v>
+      </c>
+      <c r="BF5">
+        <v>0.83835000000000004</v>
+      </c>
+      <c r="BG5">
+        <v>0.86753999999999998</v>
+      </c>
+      <c r="BH5">
+        <v>0.87183999999999995</v>
+      </c>
+      <c r="BI5">
+        <v>0.86846000000000001</v>
+      </c>
+      <c r="BJ5">
+        <v>0.82659000000000005</v>
+      </c>
+      <c r="BK5">
+        <v>0.87705999999999995</v>
+      </c>
+      <c r="BL5">
+        <v>0.86458999999999997</v>
+      </c>
+      <c r="BM5">
+        <v>0.85511999999999999</v>
+      </c>
+      <c r="BN5">
+        <v>0.85392000000000001</v>
+      </c>
+      <c r="BO5">
+        <v>0.86560999999999999</v>
+      </c>
+      <c r="BP5">
+        <v>0.87953000000000003</v>
+      </c>
+      <c r="BQ5">
+        <v>0.87212999999999996</v>
+      </c>
+      <c r="BR5">
+        <v>0.86397999999999997</v>
+      </c>
+      <c r="BS5">
+        <v>0.84016000000000002</v>
+      </c>
+      <c r="BT5">
+        <v>0.85985999999999996</v>
+      </c>
+      <c r="BU5">
+        <v>0.83692</v>
+      </c>
+      <c r="BV5">
+        <v>0.84379000000000004</v>
+      </c>
+      <c r="BW5">
+        <v>0.86885000000000001</v>
+      </c>
+      <c r="BX5">
+        <v>0.85811999999999999</v>
+      </c>
+      <c r="BY5">
+        <v>0.86707000000000001</v>
+      </c>
+      <c r="BZ5">
+        <v>0.85948999999999998</v>
+      </c>
+      <c r="CA5">
+        <v>0.83606000000000003</v>
+      </c>
+      <c r="CB5">
+        <v>0.86856999999999995</v>
+      </c>
+      <c r="CC5">
+        <v>0.86958999999999997</v>
+      </c>
+      <c r="CD5">
+        <v>0.84897999999999996</v>
+      </c>
+      <c r="CE5">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="CF5">
+        <v>0.87780999999999998</v>
+      </c>
+      <c r="CG5">
+        <v>0.85043999999999997</v>
+      </c>
+      <c r="CH5">
+        <v>0.84484000000000004</v>
+      </c>
+      <c r="CI5">
+        <v>0.85863999999999996</v>
+      </c>
+      <c r="CJ5">
+        <v>0.83752000000000004</v>
+      </c>
+      <c r="CK5">
+        <v>0.86287000000000003</v>
+      </c>
+      <c r="CL5">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="CM5">
+        <v>0.86043000000000003</v>
+      </c>
+      <c r="CN5">
+        <v>0.86128000000000005</v>
+      </c>
+      <c r="CO5">
+        <v>0.86934999999999996</v>
+      </c>
+      <c r="CP5">
+        <v>0.84716000000000002</v>
+      </c>
+      <c r="CQ5">
+        <v>0.83750999999999998</v>
+      </c>
+      <c r="CR5">
+        <v>0.84882000000000002</v>
+      </c>
+      <c r="CS5">
+        <v>0.85433000000000003</v>
+      </c>
+      <c r="CT5">
+        <v>0.86861999999999995</v>
+      </c>
+      <c r="CU5">
+        <v>0.84045999999999998</v>
+      </c>
+      <c r="CV5">
+        <v>0.84560999999999997</v>
+      </c>
+      <c r="CW5">
+        <v>0.85937229999999953</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.87253000000000003</v>
-      </c>
-      <c r="B5">
-        <v>0.88624000000000003</v>
-      </c>
-      <c r="C5">
-        <v>0.87938500000000008</v>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.86778999999999995</v>
+      </c>
+      <c r="B6">
+        <v>0.86743000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.86611000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.83891000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.87275000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.88953000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.85585</v>
+      </c>
+      <c r="H6">
+        <v>0.86806000000000005</v>
+      </c>
+      <c r="I6">
+        <v>0.87280999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.85643999999999998</v>
+      </c>
+      <c r="K6">
+        <v>0.87907000000000002</v>
+      </c>
+      <c r="L6">
+        <v>0.84231</v>
+      </c>
+      <c r="M6">
+        <v>0.83194999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.86975000000000002</v>
+      </c>
+      <c r="O6">
+        <v>0.86746999999999996</v>
+      </c>
+      <c r="P6">
+        <v>0.87585999999999997</v>
+      </c>
+      <c r="Q6">
+        <v>0.85216999999999998</v>
+      </c>
+      <c r="R6">
+        <v>0.87316000000000005</v>
+      </c>
+      <c r="S6">
+        <v>0.86573</v>
+      </c>
+      <c r="T6">
+        <v>0.87699000000000005</v>
+      </c>
+      <c r="U6">
+        <v>0.87744</v>
+      </c>
+      <c r="V6">
+        <v>0.85606000000000004</v>
+      </c>
+      <c r="W6">
+        <v>0.88102999999999998</v>
+      </c>
+      <c r="X6">
+        <v>0.87468999999999997</v>
+      </c>
+      <c r="Y6">
+        <v>0.83572000000000002</v>
+      </c>
+      <c r="Z6">
+        <v>0.88107999999999997</v>
+      </c>
+      <c r="AA6">
+        <v>0.85977000000000003</v>
+      </c>
+      <c r="AB6">
+        <v>0.85468999999999995</v>
+      </c>
+      <c r="AC6">
+        <v>0.86014000000000002</v>
+      </c>
+      <c r="AD6">
+        <v>0.87570999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>0.86341999999999997</v>
+      </c>
+      <c r="AF6">
+        <v>0.86743999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="AH6">
+        <v>0.83723999999999998</v>
+      </c>
+      <c r="AI6">
+        <v>0.86234999999999995</v>
+      </c>
+      <c r="AJ6">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="AK6">
+        <v>0.85997000000000001</v>
+      </c>
+      <c r="AL6">
+        <v>0.87263000000000002</v>
+      </c>
+      <c r="AM6">
+        <v>0.86256999999999995</v>
+      </c>
+      <c r="AN6">
+        <v>0.85202999999999995</v>
+      </c>
+      <c r="AO6">
+        <v>0.84987000000000001</v>
+      </c>
+      <c r="AP6">
+        <v>0.84748000000000001</v>
+      </c>
+      <c r="AQ6">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="AR6">
+        <v>0.86500999999999995</v>
+      </c>
+      <c r="AS6">
+        <v>0.84631999999999996</v>
+      </c>
+      <c r="AT6">
+        <v>0.85655000000000003</v>
+      </c>
+      <c r="AU6">
+        <v>0.83226</v>
+      </c>
+      <c r="AV6">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="AW6">
+        <v>0.88373000000000002</v>
+      </c>
+      <c r="AX6">
+        <v>0.87494000000000005</v>
+      </c>
+      <c r="AY6">
+        <v>0.86384000000000005</v>
+      </c>
+      <c r="AZ6">
+        <v>0.86895999999999995</v>
+      </c>
+      <c r="BA6">
+        <v>0.86184000000000005</v>
+      </c>
+      <c r="BB6">
+        <v>0.86258000000000001</v>
+      </c>
+      <c r="BC6">
+        <v>0.86722999999999995</v>
+      </c>
+      <c r="BD6">
+        <v>0.86012</v>
+      </c>
+      <c r="BE6">
+        <v>0.84557000000000004</v>
+      </c>
+      <c r="BF6">
+        <v>0.87261</v>
+      </c>
+      <c r="BG6">
+        <v>0.85984000000000005</v>
+      </c>
+      <c r="BH6">
+        <v>0.88273000000000001</v>
+      </c>
+      <c r="BI6">
+        <v>0.85450999999999999</v>
+      </c>
+      <c r="BJ6">
+        <v>0.86941999999999997</v>
+      </c>
+      <c r="BK6">
+        <v>0.84936</v>
+      </c>
+      <c r="BL6">
+        <v>0.83735000000000004</v>
+      </c>
+      <c r="BM6">
+        <v>0.87441999999999998</v>
+      </c>
+      <c r="BN6">
+        <v>0.86292999999999997</v>
+      </c>
+      <c r="BO6">
+        <v>0.86297000000000001</v>
+      </c>
+      <c r="BP6">
+        <v>0.82916000000000001</v>
+      </c>
+      <c r="BQ6">
+        <v>0.86717999999999995</v>
+      </c>
+      <c r="BR6">
+        <v>0.86133000000000004</v>
+      </c>
+      <c r="BS6">
+        <v>0.85789000000000004</v>
+      </c>
+      <c r="BT6">
+        <v>0.88707000000000003</v>
+      </c>
+      <c r="BU6">
+        <v>0.84877999999999998</v>
+      </c>
+      <c r="BV6">
+        <v>0.86656999999999995</v>
+      </c>
+      <c r="BW6">
+        <v>0.88487000000000005</v>
+      </c>
+      <c r="BX6">
+        <v>0.86763000000000001</v>
+      </c>
+      <c r="BY6">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="BZ6">
+        <v>0.87775999999999998</v>
+      </c>
+      <c r="CA6">
+        <v>0.86234999999999995</v>
+      </c>
+      <c r="CB6">
+        <v>0.87497999999999998</v>
+      </c>
+      <c r="CC6">
+        <v>0.86785000000000001</v>
+      </c>
+      <c r="CD6">
+        <v>0.85819000000000001</v>
+      </c>
+      <c r="CE6">
+        <v>0.86243999999999998</v>
+      </c>
+      <c r="CF6">
+        <v>0.83177000000000001</v>
+      </c>
+      <c r="CG6">
+        <v>0.85941999999999996</v>
+      </c>
+      <c r="CH6">
+        <v>0.85045000000000004</v>
+      </c>
+      <c r="CI6">
+        <v>0.87480999999999998</v>
+      </c>
+      <c r="CJ6">
+        <v>0.84877000000000002</v>
+      </c>
+      <c r="CK6">
+        <v>0.83352000000000004</v>
+      </c>
+      <c r="CL6">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="CM6">
+        <v>0.88846000000000003</v>
+      </c>
+      <c r="CN6">
+        <v>0.86767000000000005</v>
+      </c>
+      <c r="CO6">
+        <v>0.87765000000000004</v>
+      </c>
+      <c r="CP6">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="CQ6">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="CR6">
+        <v>0.88929000000000002</v>
+      </c>
+      <c r="CS6">
+        <v>0.83906000000000003</v>
+      </c>
+      <c r="CT6">
+        <v>0.87961</v>
+      </c>
+      <c r="CU6">
+        <v>0.86253000000000002</v>
+      </c>
+      <c r="CV6">
+        <v>0.85228000000000004</v>
+      </c>
+      <c r="CW6">
+        <v>0.86246700000000021</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.84545999999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.87239</v>
+      </c>
+      <c r="C7">
+        <v>0.85816000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.86509000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.87997999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.85182000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.89348000000000005</v>
+      </c>
+      <c r="H7">
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="I7">
+        <v>0.85121000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.85192999999999997</v>
+      </c>
+      <c r="K7">
+        <v>0.83445000000000003</v>
+      </c>
+      <c r="L7">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.85263999999999995</v>
+      </c>
+      <c r="N7">
+        <v>0.85282999999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.86958999999999997</v>
+      </c>
+      <c r="P7">
+        <v>0.86902999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.83964000000000005</v>
+      </c>
+      <c r="R7">
+        <v>0.87309000000000003</v>
+      </c>
+      <c r="S7">
+        <v>0.85131999999999997</v>
+      </c>
+      <c r="T7">
+        <v>0.85926999999999998</v>
+      </c>
+      <c r="U7">
+        <v>0.83801999999999999</v>
+      </c>
+      <c r="V7">
+        <v>0.86038999999999999</v>
+      </c>
+      <c r="W7">
+        <v>0.86292999999999997</v>
+      </c>
+      <c r="X7">
+        <v>0.86861999999999995</v>
+      </c>
+      <c r="Y7">
+        <v>0.84067000000000003</v>
+      </c>
+      <c r="Z7">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>0.83143999999999996</v>
+      </c>
+      <c r="AB7">
+        <v>0.86645000000000005</v>
+      </c>
+      <c r="AC7">
+        <v>0.85492000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>0.87051999999999996</v>
+      </c>
+      <c r="AE7">
+        <v>0.89000999999999997</v>
+      </c>
+      <c r="AF7">
+        <v>0.85414999999999996</v>
+      </c>
+      <c r="AG7">
+        <v>0.84558</v>
+      </c>
+      <c r="AH7">
+        <v>0.87017999999999995</v>
+      </c>
+      <c r="AI7">
+        <v>0.86007999999999996</v>
+      </c>
+      <c r="AJ7">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="AK7">
+        <v>0.88010999999999995</v>
+      </c>
+      <c r="AL7">
+        <v>0.86116999999999999</v>
+      </c>
+      <c r="AM7">
+        <v>0.85328000000000004</v>
+      </c>
+      <c r="AN7">
+        <v>0.84621999999999997</v>
+      </c>
+      <c r="AO7">
+        <v>0.85812999999999995</v>
+      </c>
+      <c r="AP7">
+        <v>0.86331000000000002</v>
+      </c>
+      <c r="AQ7">
+        <v>0.85445000000000004</v>
+      </c>
+      <c r="AR7">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="AS7">
+        <v>0.87114000000000003</v>
+      </c>
+      <c r="AT7">
+        <v>0.84509000000000001</v>
+      </c>
+      <c r="AU7">
+        <v>0.86438999999999999</v>
+      </c>
+      <c r="AV7">
+        <v>0.86536999999999997</v>
+      </c>
+      <c r="AW7">
+        <v>0.85118000000000005</v>
+      </c>
+      <c r="AX7">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="AY7">
+        <v>0.85946999999999996</v>
+      </c>
+      <c r="AZ7">
+        <v>0.87570999999999999</v>
+      </c>
+      <c r="BA7">
+        <v>0.87868999999999997</v>
+      </c>
+      <c r="BB7">
+        <v>0.87434000000000001</v>
+      </c>
+      <c r="BC7">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="BD7">
+        <v>0.84684999999999999</v>
+      </c>
+      <c r="BE7">
+        <v>0.84187000000000001</v>
+      </c>
+      <c r="BF7">
+        <v>0.84601000000000004</v>
+      </c>
+      <c r="BG7">
+        <v>0.84828999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>0.84062999999999999</v>
+      </c>
+      <c r="BI7">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="BJ7">
+        <v>0.85</v>
+      </c>
+      <c r="BK7">
+        <v>0.87266999999999995</v>
+      </c>
+      <c r="BL7">
+        <v>0.85777999999999999</v>
+      </c>
+      <c r="BM7">
+        <v>0.85573999999999995</v>
+      </c>
+      <c r="BN7">
+        <v>0.86241999999999996</v>
+      </c>
+      <c r="BO7">
+        <v>0.84323000000000004</v>
+      </c>
+      <c r="BP7">
+        <v>0.83694999999999997</v>
+      </c>
+      <c r="BQ7">
+        <v>0.85772000000000004</v>
+      </c>
+      <c r="BR7">
+        <v>0.89165000000000005</v>
+      </c>
+      <c r="BS7">
+        <v>0.87739</v>
+      </c>
+      <c r="BT7">
+        <v>0.86785000000000001</v>
+      </c>
+      <c r="BU7">
+        <v>0.82628999999999997</v>
+      </c>
+      <c r="BV7">
+        <v>0.87004000000000004</v>
+      </c>
+      <c r="BW7">
+        <v>0.85224999999999995</v>
+      </c>
+      <c r="BX7">
+        <v>0.84392</v>
+      </c>
+      <c r="BY7">
+        <v>0.86148999999999998</v>
+      </c>
+      <c r="BZ7">
+        <v>0.86489000000000005</v>
+      </c>
+      <c r="CA7">
+        <v>0.85712999999999995</v>
+      </c>
+      <c r="CB7">
+        <v>0.88615999999999995</v>
+      </c>
+      <c r="CC7">
+        <v>0.8256</v>
+      </c>
+      <c r="CD7">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="CE7">
+        <v>0.85955999999999999</v>
+      </c>
+      <c r="CF7">
+        <v>0.85106000000000004</v>
+      </c>
+      <c r="CG7">
+        <v>0.87748999999999999</v>
+      </c>
+      <c r="CH7">
+        <v>0.84628000000000003</v>
+      </c>
+      <c r="CI7">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="CJ7">
+        <v>0.84306000000000003</v>
+      </c>
+      <c r="CK7">
+        <v>0.86412</v>
+      </c>
+      <c r="CL7">
+        <v>0.88168999999999997</v>
+      </c>
+      <c r="CM7">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="CN7">
+        <v>0.87224999999999997</v>
+      </c>
+      <c r="CO7">
+        <v>0.84938000000000002</v>
+      </c>
+      <c r="CP7">
+        <v>0.86843000000000004</v>
+      </c>
+      <c r="CQ7">
+        <v>0.83345999999999998</v>
+      </c>
+      <c r="CR7">
+        <v>0.86348999999999998</v>
+      </c>
+      <c r="CS7">
+        <v>0.87636000000000003</v>
+      </c>
+      <c r="CT7">
+        <v>0.86167000000000005</v>
+      </c>
+      <c r="CU7">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="CV7">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="CW7">
+        <v>0.85963009999999984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="B8">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.84911999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.87453999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.86063999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.83596000000000004</v>
+      </c>
+      <c r="H8">
+        <v>0.86112</v>
+      </c>
+      <c r="I8">
+        <v>0.84762000000000004</v>
+      </c>
+      <c r="J8">
+        <v>0.86024</v>
+      </c>
+      <c r="K8">
+        <v>0.85094000000000003</v>
+      </c>
+      <c r="L8">
+        <v>0.85482999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.84752000000000005</v>
+      </c>
+      <c r="N8">
+        <v>0.85067999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.85153999999999996</v>
+      </c>
+      <c r="P8">
+        <v>0.84714</v>
+      </c>
+      <c r="Q8">
+        <v>0.86378999999999995</v>
+      </c>
+      <c r="R8">
+        <v>0.83550999999999997</v>
+      </c>
+      <c r="S8">
+        <v>0.82906999999999997</v>
+      </c>
+      <c r="T8">
+        <v>0.84123000000000003</v>
+      </c>
+      <c r="U8">
+        <v>0.85455000000000003</v>
+      </c>
+      <c r="V8">
+        <v>0.86926999999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.87661999999999995</v>
+      </c>
+      <c r="X8">
+        <v>0.83733000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>0.87273999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>0.84333999999999998</v>
+      </c>
+      <c r="AA8">
+        <v>0.83252000000000004</v>
+      </c>
+      <c r="AB8">
+        <v>0.85590999999999995</v>
+      </c>
+      <c r="AC8">
+        <v>0.85502999999999996</v>
+      </c>
+      <c r="AD8">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="AE8">
+        <v>0.87443000000000004</v>
+      </c>
+      <c r="AF8">
+        <v>0.85816999999999999</v>
+      </c>
+      <c r="AG8">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="AH8">
+        <v>0.83406000000000002</v>
+      </c>
+      <c r="AI8">
+        <v>0.86643000000000003</v>
+      </c>
+      <c r="AJ8">
+        <v>0.85968</v>
+      </c>
+      <c r="AK8">
+        <v>0.85324999999999995</v>
+      </c>
+      <c r="AL8">
+        <v>0.85</v>
+      </c>
+      <c r="AM8">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="AN8">
+        <v>0.84538999999999997</v>
+      </c>
+      <c r="AO8">
+        <v>0.86782999999999999</v>
+      </c>
+      <c r="AP8">
+        <v>0.87699000000000005</v>
+      </c>
+      <c r="AQ8">
+        <v>0.83804999999999996</v>
+      </c>
+      <c r="AR8">
+        <v>0.86324000000000001</v>
+      </c>
+      <c r="AS8">
+        <v>0.84741</v>
+      </c>
+      <c r="AT8">
+        <v>0.87583999999999995</v>
+      </c>
+      <c r="AU8">
+        <v>0.87768999999999997</v>
+      </c>
+      <c r="AV8">
+        <v>0.85097</v>
+      </c>
+      <c r="AW8">
+        <v>0.85316999999999998</v>
+      </c>
+      <c r="AX8">
+        <v>0.85736999999999997</v>
+      </c>
+      <c r="AY8">
+        <v>0.86967000000000005</v>
+      </c>
+      <c r="AZ8">
+        <v>0.84011000000000002</v>
+      </c>
+      <c r="BA8">
+        <v>0.85604999999999998</v>
+      </c>
+      <c r="BB8">
+        <v>0.86556</v>
+      </c>
+      <c r="BC8">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="BD8">
+        <v>0.86304000000000003</v>
+      </c>
+      <c r="BE8">
+        <v>0.82360999999999995</v>
+      </c>
+      <c r="BF8">
+        <v>0.85653999999999997</v>
+      </c>
+      <c r="BG8">
+        <v>0.85236000000000001</v>
+      </c>
+      <c r="BH8">
+        <v>0.8528</v>
+      </c>
+      <c r="BI8">
+        <v>0.85660999999999998</v>
+      </c>
+      <c r="BJ8">
+        <v>0.85702999999999996</v>
+      </c>
+      <c r="BK8">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="BL8">
+        <v>0.84989000000000003</v>
+      </c>
+      <c r="BM8">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="BN8">
+        <v>0.82484999999999997</v>
+      </c>
+      <c r="BO8">
+        <v>0.84380999999999995</v>
+      </c>
+      <c r="BP8">
+        <v>0.85160999999999998</v>
+      </c>
+      <c r="BQ8">
+        <v>0.87782000000000004</v>
+      </c>
+      <c r="BR8">
+        <v>0.86348999999999998</v>
+      </c>
+      <c r="BS8">
+        <v>0.83972000000000002</v>
+      </c>
+      <c r="BT8">
+        <v>0.86516000000000004</v>
+      </c>
+      <c r="BU8">
+        <v>0.85696000000000006</v>
+      </c>
+      <c r="BV8">
+        <v>0.86214000000000002</v>
+      </c>
+      <c r="BW8">
+        <v>0.87102999999999997</v>
+      </c>
+      <c r="BX8">
+        <v>0.85441999999999996</v>
+      </c>
+      <c r="BY8">
+        <v>0.86922999999999995</v>
+      </c>
+      <c r="BZ8">
+        <v>0.88966999999999996</v>
+      </c>
+      <c r="CA8">
+        <v>0.86414000000000002</v>
+      </c>
+      <c r="CB8">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="CC8">
+        <v>0.86029</v>
+      </c>
+      <c r="CD8">
+        <v>0.86731999999999998</v>
+      </c>
+      <c r="CE8">
+        <v>0.84882999999999997</v>
+      </c>
+      <c r="CF8">
+        <v>0.86773</v>
+      </c>
+      <c r="CG8">
+        <v>0.84728999999999999</v>
+      </c>
+      <c r="CH8">
+        <v>0.86684000000000005</v>
+      </c>
+      <c r="CI8">
+        <v>0.82267000000000001</v>
+      </c>
+      <c r="CJ8">
+        <v>0.87417</v>
+      </c>
+      <c r="CK8">
+        <v>0.84872000000000003</v>
+      </c>
+      <c r="CL8">
+        <v>0.82484000000000002</v>
+      </c>
+      <c r="CM8">
+        <v>0.87456</v>
+      </c>
+      <c r="CN8">
+        <v>0.85365000000000002</v>
+      </c>
+      <c r="CO8">
+        <v>0.88058999999999998</v>
+      </c>
+      <c r="CP8">
+        <v>0.87655000000000005</v>
+      </c>
+      <c r="CQ8">
+        <v>0.85358999999999996</v>
+      </c>
+      <c r="CR8">
+        <v>0.86055000000000004</v>
+      </c>
+      <c r="CS8">
+        <v>0.85811999999999999</v>
+      </c>
+      <c r="CT8">
+        <v>0.85945000000000005</v>
+      </c>
+      <c r="CU8">
+        <v>0.86073</v>
+      </c>
+      <c r="CV8">
+        <v>0.86299000000000003</v>
+      </c>
+      <c r="CW8">
+        <v>0.85578670000000012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.87561999999999995</v>
+      </c>
+      <c r="B9">
+        <v>0.86651999999999996</v>
+      </c>
+      <c r="C9">
+        <v>0.86716000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.85470999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.85045999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.85021999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.84611000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.83626999999999996</v>
+      </c>
+      <c r="I9">
+        <v>0.89278999999999997</v>
+      </c>
+      <c r="J9">
+        <v>0.85441999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.86212999999999995</v>
+      </c>
+      <c r="L9">
+        <v>0.86087999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.84811000000000003</v>
+      </c>
+      <c r="N9">
+        <v>0.85675999999999997</v>
+      </c>
+      <c r="O9">
+        <v>0.86856999999999995</v>
+      </c>
+      <c r="P9">
+        <v>0.83892999999999995</v>
+      </c>
+      <c r="Q9">
+        <v>0.85863999999999996</v>
+      </c>
+      <c r="R9">
+        <v>0.87231000000000003</v>
+      </c>
+      <c r="S9">
+        <v>0.83903000000000005</v>
+      </c>
+      <c r="T9">
+        <v>0.87353000000000003</v>
+      </c>
+      <c r="U9">
+        <v>0.86112</v>
+      </c>
+      <c r="V9">
+        <v>0.86053000000000002</v>
+      </c>
+      <c r="W9">
+        <v>0.88690999999999998</v>
+      </c>
+      <c r="X9">
+        <v>0.85531000000000001</v>
+      </c>
+      <c r="Y9">
+        <v>0.85792999999999997</v>
+      </c>
+      <c r="Z9">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="AA9">
+        <v>0.87478999999999996</v>
+      </c>
+      <c r="AB9">
+        <v>0.87634999999999996</v>
+      </c>
+      <c r="AC9">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="AD9">
+        <v>0.86777000000000004</v>
+      </c>
+      <c r="AE9">
+        <v>0.85311000000000003</v>
+      </c>
+      <c r="AF9">
+        <v>0.85233999999999999</v>
+      </c>
+      <c r="AG9">
+        <v>0.88097000000000003</v>
+      </c>
+      <c r="AH9">
+        <v>0.86314000000000002</v>
+      </c>
+      <c r="AI9">
+        <v>0.86587000000000003</v>
+      </c>
+      <c r="AJ9">
+        <v>0.87024999999999997</v>
+      </c>
+      <c r="AK9">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="AL9">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="AM9">
+        <v>0.85894999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>0.85663999999999996</v>
+      </c>
+      <c r="AO9">
+        <v>0.87733000000000005</v>
+      </c>
+      <c r="AP9">
+        <v>0.85794999999999999</v>
+      </c>
+      <c r="AQ9">
+        <v>0.88265000000000005</v>
+      </c>
+      <c r="AR9">
+        <v>0.86453000000000002</v>
+      </c>
+      <c r="AS9">
+        <v>0.88266999999999995</v>
+      </c>
+      <c r="AT9">
+        <v>0.85016000000000003</v>
+      </c>
+      <c r="AU9">
+        <v>0.85772000000000004</v>
+      </c>
+      <c r="AV9">
+        <v>0.86367000000000005</v>
+      </c>
+      <c r="AW9">
+        <v>0.84994000000000003</v>
+      </c>
+      <c r="AX9">
+        <v>0.85448000000000002</v>
+      </c>
+      <c r="AY9">
+        <v>0.83726999999999996</v>
+      </c>
+      <c r="AZ9">
+        <v>0.85877000000000003</v>
+      </c>
+      <c r="BA9">
+        <v>0.84858999999999996</v>
+      </c>
+      <c r="BB9">
+        <v>0.86617999999999995</v>
+      </c>
+      <c r="BC9">
+        <v>0.87885000000000002</v>
+      </c>
+      <c r="BD9">
+        <v>0.86890999999999996</v>
+      </c>
+      <c r="BE9">
+        <v>0.87400999999999995</v>
+      </c>
+      <c r="BF9">
+        <v>0.87814999999999999</v>
+      </c>
+      <c r="BG9">
+        <v>0.84572999999999998</v>
+      </c>
+      <c r="BH9">
+        <v>0.87485999999999997</v>
+      </c>
+      <c r="BI9">
+        <v>0.85951999999999995</v>
+      </c>
+      <c r="BJ9">
+        <v>0.88065000000000004</v>
+      </c>
+      <c r="BK9">
+        <v>0.87553000000000003</v>
+      </c>
+      <c r="BL9">
+        <v>0.86067000000000005</v>
+      </c>
+      <c r="BM9">
+        <v>0.84319</v>
+      </c>
+      <c r="BN9">
+        <v>0.85404000000000002</v>
+      </c>
+      <c r="BO9">
+        <v>0.85904999999999998</v>
+      </c>
+      <c r="BP9">
+        <v>0.85577000000000003</v>
+      </c>
+      <c r="BQ9">
+        <v>0.84380999999999995</v>
+      </c>
+      <c r="BR9">
+        <v>0.84440999999999999</v>
+      </c>
+      <c r="BS9">
+        <v>0.84548000000000001</v>
+      </c>
+      <c r="BT9">
+        <v>0.84907999999999995</v>
+      </c>
+      <c r="BU9">
+        <v>0.85901000000000005</v>
+      </c>
+      <c r="BV9">
+        <v>0.87397999999999998</v>
+      </c>
+      <c r="BW9">
+        <v>0.85451999999999995</v>
+      </c>
+      <c r="BX9">
+        <v>0.87792000000000003</v>
+      </c>
+      <c r="BY9">
+        <v>0.84097</v>
+      </c>
+      <c r="BZ9">
+        <v>0.86600999999999995</v>
+      </c>
+      <c r="CA9">
+        <v>0.86741000000000001</v>
+      </c>
+      <c r="CB9">
+        <v>0.85994999999999999</v>
+      </c>
+      <c r="CC9">
+        <v>0.82977000000000001</v>
+      </c>
+      <c r="CD9">
+        <v>0.83728000000000002</v>
+      </c>
+      <c r="CE9">
+        <v>0.88266999999999995</v>
+      </c>
+      <c r="CF9">
+        <v>0.8448</v>
+      </c>
+      <c r="CG9">
+        <v>0.85245000000000004</v>
+      </c>
+      <c r="CH9">
+        <v>0.85687000000000002</v>
+      </c>
+      <c r="CI9">
+        <v>0.85068999999999995</v>
+      </c>
+      <c r="CJ9">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="CK9">
+        <v>0.85172999999999999</v>
+      </c>
+      <c r="CL9">
+        <v>0.84504999999999997</v>
+      </c>
+      <c r="CM9">
+        <v>0.85394000000000003</v>
+      </c>
+      <c r="CN9">
+        <v>0.88654999999999995</v>
+      </c>
+      <c r="CO9">
+        <v>0.86346999999999996</v>
+      </c>
+      <c r="CP9">
+        <v>0.85421000000000002</v>
+      </c>
+      <c r="CQ9">
+        <v>0.85038000000000002</v>
+      </c>
+      <c r="CR9">
+        <v>0.85013000000000005</v>
+      </c>
+      <c r="CS9">
+        <v>0.85084000000000004</v>
+      </c>
+      <c r="CT9">
+        <v>0.86948999999999999</v>
+      </c>
+      <c r="CU9">
+        <v>0.84667999999999999</v>
+      </c>
+      <c r="CV9">
+        <v>0.82869000000000004</v>
+      </c>
+      <c r="CW9">
+        <v>0.85933730000000053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.87056999999999995</v>
+      </c>
+      <c r="B10">
+        <v>0.87322999999999995</v>
+      </c>
+      <c r="C10">
+        <v>0.86621999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.85618000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.85313000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.87895000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.85721000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.84675999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.88300999999999996</v>
+      </c>
+      <c r="J10">
+        <v>0.85458999999999996</v>
+      </c>
+      <c r="K10">
+        <v>0.87131999999999998</v>
+      </c>
+      <c r="L10">
+        <v>0.84831999999999996</v>
+      </c>
+      <c r="M10">
+        <v>0.84987000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.83157999999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.86543999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.85884000000000005</v>
+      </c>
+      <c r="Q10">
+        <v>0.84216999999999997</v>
+      </c>
+      <c r="R10">
+        <v>0.85033999999999998</v>
+      </c>
+      <c r="S10">
+        <v>0.85423000000000004</v>
+      </c>
+      <c r="T10">
+        <v>0.82977000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.85982999999999998</v>
+      </c>
+      <c r="V10">
+        <v>0.81613999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.84516000000000002</v>
+      </c>
+      <c r="X10">
+        <v>0.85277000000000003</v>
+      </c>
+      <c r="Y10">
+        <v>0.87244999999999995</v>
+      </c>
+      <c r="Z10">
+        <v>0.86077000000000004</v>
+      </c>
+      <c r="AA10">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="AB10">
+        <v>0.85924999999999996</v>
+      </c>
+      <c r="AC10">
+        <v>0.86839</v>
+      </c>
+      <c r="AD10">
+        <v>0.84728000000000003</v>
+      </c>
+      <c r="AE10">
+        <v>0.86162000000000005</v>
+      </c>
+      <c r="AF10">
+        <v>0.86304999999999998</v>
+      </c>
+      <c r="AG10">
+        <v>0.87324000000000002</v>
+      </c>
+      <c r="AH10">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AI10">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="AJ10">
+        <v>0.86795999999999995</v>
+      </c>
+      <c r="AK10">
+        <v>0.84843000000000002</v>
+      </c>
+      <c r="AL10">
+        <v>0.85424999999999995</v>
+      </c>
+      <c r="AM10">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="AN10">
+        <v>0.84962000000000004</v>
+      </c>
+      <c r="AO10">
+        <v>0.86941999999999997</v>
+      </c>
+      <c r="AP10">
+        <v>0.82094</v>
+      </c>
+      <c r="AQ10">
+        <v>0.85572000000000004</v>
+      </c>
+      <c r="AR10">
+        <v>0.85748000000000002</v>
+      </c>
+      <c r="AS10">
+        <v>0.84718000000000004</v>
+      </c>
+      <c r="AT10">
+        <v>0.84477999999999998</v>
+      </c>
+      <c r="AU10">
+        <v>0.86609000000000003</v>
+      </c>
+      <c r="AV10">
+        <v>0.85309000000000001</v>
+      </c>
+      <c r="AW10">
+        <v>0.85697000000000001</v>
+      </c>
+      <c r="AX10">
+        <v>0.85506000000000004</v>
+      </c>
+      <c r="AY10">
+        <v>0.84155000000000002</v>
+      </c>
+      <c r="AZ10">
+        <v>0.84145999999999999</v>
+      </c>
+      <c r="BA10">
+        <v>0.85558000000000001</v>
+      </c>
+      <c r="BB10">
+        <v>0.86921000000000004</v>
+      </c>
+      <c r="BC10">
+        <v>0.88038000000000005</v>
+      </c>
+      <c r="BD10">
+        <v>0.85116999999999998</v>
+      </c>
+      <c r="BE10">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="BF10">
+        <v>0.83384999999999998</v>
+      </c>
+      <c r="BG10">
+        <v>0.85414000000000001</v>
+      </c>
+      <c r="BH10">
+        <v>0.85346999999999995</v>
+      </c>
+      <c r="BI10">
+        <v>0.87733000000000005</v>
+      </c>
+      <c r="BJ10">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="BK10">
+        <v>0.86168</v>
+      </c>
+      <c r="BL10">
+        <v>0.82411999999999996</v>
+      </c>
+      <c r="BM10">
+        <v>0.86012999999999995</v>
+      </c>
+      <c r="BN10">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="BO10">
+        <v>0.84367999999999999</v>
+      </c>
+      <c r="BP10">
+        <v>0.85594000000000003</v>
+      </c>
+      <c r="BQ10">
+        <v>0.86753999999999998</v>
+      </c>
+      <c r="BR10">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="BS10">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="BT10">
+        <v>0.84067000000000003</v>
+      </c>
+      <c r="BU10">
+        <v>0.83084000000000002</v>
+      </c>
+      <c r="BV10">
+        <v>0.85592999999999997</v>
+      </c>
+      <c r="BW10">
+        <v>0.84931000000000001</v>
+      </c>
+      <c r="BX10">
+        <v>0.87607999999999997</v>
+      </c>
+      <c r="BY10">
+        <v>0.86475000000000002</v>
+      </c>
+      <c r="BZ10">
+        <v>0.86734999999999995</v>
+      </c>
+      <c r="CA10">
+        <v>0.84172000000000002</v>
+      </c>
+      <c r="CB10">
+        <v>0.85607</v>
+      </c>
+      <c r="CC10">
+        <v>0.87766</v>
+      </c>
+      <c r="CD10">
+        <v>0.86890999999999996</v>
+      </c>
+      <c r="CE10">
+        <v>0.86438000000000004</v>
+      </c>
+      <c r="CF10">
+        <v>0.82316</v>
+      </c>
+      <c r="CG10">
+        <v>0.88165000000000004</v>
+      </c>
+      <c r="CH10">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="CI10">
+        <v>0.81444000000000005</v>
+      </c>
+      <c r="CJ10">
+        <v>0.86853000000000002</v>
+      </c>
+      <c r="CK10">
+        <v>0.85821999999999998</v>
+      </c>
+      <c r="CL10">
+        <v>0.86095999999999995</v>
+      </c>
+      <c r="CM10">
+        <v>0.88271999999999995</v>
+      </c>
+      <c r="CN10">
+        <v>0.85562000000000005</v>
+      </c>
+      <c r="CO10">
+        <v>0.87553999999999998</v>
+      </c>
+      <c r="CP10">
+        <v>0.85158</v>
+      </c>
+      <c r="CQ10">
+        <v>0.87395</v>
+      </c>
+      <c r="CR10">
+        <v>0.84963</v>
+      </c>
+      <c r="CS10">
+        <v>0.87207000000000001</v>
+      </c>
+      <c r="CT10">
+        <v>0.85224999999999995</v>
+      </c>
+      <c r="CU10">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="CV10">
+        <v>0.88178999999999996</v>
+      </c>
+      <c r="CW10">
+        <v>0.8566313000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.85653999999999997</v>
+      </c>
+      <c r="B11">
+        <v>0.87458999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.86238999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.87351999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.84560999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.85416000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.87448000000000004</v>
+      </c>
+      <c r="H11">
+        <v>0.85706000000000004</v>
+      </c>
+      <c r="I11">
+        <v>0.86489000000000005</v>
+      </c>
+      <c r="J11">
+        <v>0.83645999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.86256999999999995</v>
+      </c>
+      <c r="M11">
+        <v>0.85263</v>
+      </c>
+      <c r="N11">
+        <v>0.84353999999999996</v>
+      </c>
+      <c r="O11">
+        <v>0.85870999999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.86931000000000003</v>
+      </c>
+      <c r="Q11">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.86641999999999997</v>
+      </c>
+      <c r="S11">
+        <v>0.84804999999999997</v>
+      </c>
+      <c r="T11">
+        <v>0.86226999999999998</v>
+      </c>
+      <c r="U11">
+        <v>0.87429000000000001</v>
+      </c>
+      <c r="V11">
+        <v>0.83770999999999995</v>
+      </c>
+      <c r="W11">
+        <v>0.82864000000000004</v>
+      </c>
+      <c r="X11">
+        <v>0.84352000000000005</v>
+      </c>
+      <c r="Y11">
+        <v>0.87182000000000004</v>
+      </c>
+      <c r="Z11">
+        <v>0.87061999999999995</v>
+      </c>
+      <c r="AA11">
+        <v>0.85553000000000001</v>
+      </c>
+      <c r="AB11">
+        <v>0.85573999999999995</v>
+      </c>
+      <c r="AC11">
+        <v>0.86382999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>0.85128999999999999</v>
+      </c>
+      <c r="AE11">
         <v>0.86238000000000004</v>
       </c>
-      <c r="B6">
-        <v>0.84909000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.85573500000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.84287999999999996</v>
-      </c>
-      <c r="B7">
-        <v>0.86804000000000003</v>
-      </c>
-      <c r="C7">
-        <v>0.85546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.85921000000000003</v>
-      </c>
-      <c r="B8">
+      <c r="AF11">
+        <v>0.84379000000000004</v>
+      </c>
+      <c r="AG11">
+        <v>0.83628999999999998</v>
+      </c>
+      <c r="AH11">
+        <v>0.85038999999999998</v>
+      </c>
+      <c r="AI11">
+        <v>0.84531000000000001</v>
+      </c>
+      <c r="AJ11">
+        <v>0.83082999999999996</v>
+      </c>
+      <c r="AK11">
+        <v>0.84823999999999999</v>
+      </c>
+      <c r="AL11">
+        <v>0.85535000000000005</v>
+      </c>
+      <c r="AM11">
+        <v>0.84411000000000003</v>
+      </c>
+      <c r="AN11">
+        <v>0.82909999999999995</v>
+      </c>
+      <c r="AO11">
+        <v>0.83252999999999999</v>
+      </c>
+      <c r="AP11">
+        <v>0.84587999999999997</v>
+      </c>
+      <c r="AQ11">
+        <v>0.84228999999999998</v>
+      </c>
+      <c r="AR11">
+        <v>0.87795999999999996</v>
+      </c>
+      <c r="AS11">
+        <v>0.82552999999999999</v>
+      </c>
+      <c r="AT11">
+        <v>0.86151999999999995</v>
+      </c>
+      <c r="AU11">
+        <v>0.87397999999999998</v>
+      </c>
+      <c r="AV11">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="AW11">
+        <v>0.86102000000000001</v>
+      </c>
+      <c r="AX11">
+        <v>0.84487999999999996</v>
+      </c>
+      <c r="AY11">
+        <v>0.84743000000000002</v>
+      </c>
+      <c r="AZ11">
+        <v>0.88887000000000005</v>
+      </c>
+      <c r="BA11">
+        <v>0.84958</v>
+      </c>
+      <c r="BB11">
+        <v>0.85280999999999996</v>
+      </c>
+      <c r="BC11">
+        <v>0.86238000000000004</v>
+      </c>
+      <c r="BD11">
+        <v>0.84369000000000005</v>
+      </c>
+      <c r="BE11">
+        <v>0.86214999999999997</v>
+      </c>
+      <c r="BF11">
+        <v>0.86958999999999997</v>
+      </c>
+      <c r="BG11">
         <v>0.85228000000000004</v>
       </c>
-      <c r="C8">
-        <v>0.85574499999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.85128999999999999</v>
-      </c>
-      <c r="B9">
-        <v>0.86429</v>
-      </c>
-      <c r="C9">
-        <v>0.85779000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.83611000000000002</v>
-      </c>
-      <c r="B10">
-        <v>0.84528999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.8407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.87388999999999994</v>
-      </c>
-      <c r="B11">
-        <v>0.84533999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.85961500000000002</v>
+      <c r="BH11">
+        <v>0.84602999999999995</v>
+      </c>
+      <c r="BI11">
+        <v>0.85170000000000001</v>
+      </c>
+      <c r="BJ11">
+        <v>0.85838999999999999</v>
+      </c>
+      <c r="BK11">
+        <v>0.84279000000000004</v>
+      </c>
+      <c r="BL11">
+        <v>0.86553000000000002</v>
+      </c>
+      <c r="BM11">
+        <v>0.86787999999999998</v>
+      </c>
+      <c r="BN11">
+        <v>0.84941</v>
+      </c>
+      <c r="BO11">
+        <v>0.85475999999999996</v>
+      </c>
+      <c r="BP11">
+        <v>0.83867999999999998</v>
+      </c>
+      <c r="BQ11">
+        <v>0.84065999999999996</v>
+      </c>
+      <c r="BR11">
+        <v>0.84665000000000001</v>
+      </c>
+      <c r="BS11">
+        <v>0.86451999999999996</v>
+      </c>
+      <c r="BT11">
+        <v>0.83594000000000002</v>
+      </c>
+      <c r="BU11">
+        <v>0.83692</v>
+      </c>
+      <c r="BV11">
+        <v>0.88163000000000002</v>
+      </c>
+      <c r="BW11">
+        <v>0.84633000000000003</v>
+      </c>
+      <c r="BX11">
+        <v>0.86887000000000003</v>
+      </c>
+      <c r="BY11">
+        <v>0.86456999999999995</v>
+      </c>
+      <c r="BZ11">
+        <v>0.84519</v>
+      </c>
+      <c r="CA11">
+        <v>0.86626999999999998</v>
+      </c>
+      <c r="CB11">
+        <v>0.85436999999999996</v>
+      </c>
+      <c r="CC11">
+        <v>0.83714999999999995</v>
+      </c>
+      <c r="CD11">
+        <v>0.86272000000000004</v>
+      </c>
+      <c r="CE11">
+        <v>0.84524999999999995</v>
+      </c>
+      <c r="CF11">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="CG11">
+        <v>0.84867999999999999</v>
+      </c>
+      <c r="CH11">
+        <v>0.84382999999999997</v>
+      </c>
+      <c r="CI11">
+        <v>0.87517</v>
+      </c>
+      <c r="CJ11">
+        <v>0.84643000000000002</v>
+      </c>
+      <c r="CK11">
+        <v>0.88112999999999997</v>
+      </c>
+      <c r="CL11">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="CM11">
+        <v>0.86636999999999997</v>
+      </c>
+      <c r="CN11">
+        <v>0.8619</v>
+      </c>
+      <c r="CO11">
+        <v>0.87231000000000003</v>
+      </c>
+      <c r="CP11">
+        <v>0.86431000000000002</v>
+      </c>
+      <c r="CQ11">
+        <v>0.85677999999999999</v>
+      </c>
+      <c r="CR11">
+        <v>0.88358000000000003</v>
+      </c>
+      <c r="CS11">
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="CT11">
+        <v>0.88529000000000002</v>
+      </c>
+      <c r="CU11">
+        <v>0.86960999999999999</v>
+      </c>
+      <c r="CV11">
+        <v>0.88195999999999997</v>
+      </c>
+      <c r="CW11">
+        <v>0.85663409999999995</v>
       </c>
     </row>
   </sheetData>
